--- a/results/I3_N5_M2_T45_C100_DepCentral_s3_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1176.256084436791</v>
+        <v>1078.966084436787</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.23248198858461</v>
+        <v>10.16296524632998</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.012848188082639</v>
+        <v>2.94333144582801</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>627.380000000004</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.91</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.930483257745372</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.82492372683955</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.504018237563088</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>37.99539592898705</v>
       </c>
     </row>
     <row r="9">
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,85 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.0549999999994</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>116.7749999999994</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>114.6749999999994</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>115.3349999999994</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>117.75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.1950000000008</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>143.2800000000009</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>144.3850000000009</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>152.8250000000009</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>150.4150000000009</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.1100000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000028</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.595000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.555000000001</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>101.990000000001</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>114.65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>109.15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.0549999999994</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>116.7749999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.6749999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>115.3349999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>117.75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.1950000000008</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>143.2800000000009</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>144.3850000000009</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>152.8250000000009</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>150.4150000000009</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.05499999999942</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.77499999999941</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.67499999999941</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.33499999999943</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47.19500000000085</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>43.28000000000088</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3850000000009</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>52.82500000000087</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>50.41500000000087</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2095,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2235,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2246,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2257,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2268,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2279,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
